--- a/public_html/export/country-master.xlsx
+++ b/public_html/export/country-master.xlsx
@@ -75,15 +75,19 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/public_html/export/country-master.xlsx
+++ b/public_html/export/country-master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
   <si>
     <t>Id</t>
   </si>
@@ -26,28 +26,1378 @@
     <t>Country Name</t>
   </si>
   <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>Bonaire</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegovina</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China, Peoples Republic</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Commonwealth No. Mariana Islands</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic Of</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote D Ivoire</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czech Republic, The</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Guyana</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea Republic</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Guinea-Equatorial</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Guyana (British)</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic Of)</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland, Republic Of</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Korea, Republic Of (South K.)</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Korea, The D.P.R Of (North K.)</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lao Peoples Democratic Republic</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia, Republic Of</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States Of</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Moldova, Republic Of</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nauru, Republic Of</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands, The</t>
+  </si>
+  <si>
+    <t>XN</t>
+  </si>
+  <si>
+    <t>Nevis</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Philippines, The</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Reunion, Island Of</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Russian Federation, The</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Sao Tome And Principe</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Serbia, Republic Of</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>Somaliland, Rep Of (North Somalia)</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>St. Barthelemy</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>St. Eustatius</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>St. Kitts</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>St. Maarten</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>St. Vincent</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Tahiti</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Trinidad And Tobago</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Turks And Caicos Islands</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>United Kingdom (Great Britain / UK)</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Australia</t>
+    <t>United States Of America</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Virgin Islands (Us)</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen, Republic Of</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -387,7 +1737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +1798,2503 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>345</v>
+      </c>
+      <c r="C175" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>347</v>
+      </c>
+      <c r="C176" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>349</v>
+      </c>
+      <c r="C177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>351</v>
+      </c>
+      <c r="C178" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>353</v>
+      </c>
+      <c r="C179" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+      <c r="C181" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>373</v>
+      </c>
+      <c r="C189" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+      <c r="C193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>389</v>
+      </c>
+      <c r="C197" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>395</v>
+      </c>
+      <c r="C200" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>397</v>
+      </c>
+      <c r="C201" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+      <c r="C203" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+      <c r="C205" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C207" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
+      </c>
+      <c r="C208" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>413</v>
+      </c>
+      <c r="C209" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>417</v>
+      </c>
+      <c r="C211" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+      <c r="C213" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>423</v>
+      </c>
+      <c r="C214" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>427</v>
+      </c>
+      <c r="C216" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>431</v>
+      </c>
+      <c r="C218" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>437</v>
+      </c>
+      <c r="C221" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>449</v>
+      </c>
+      <c r="C227" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>451</v>
+      </c>
+      <c r="C228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>455</v>
+      </c>
+      <c r="C230" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+      <c r="C232" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
